--- a/biology/Botanique/Eupodium/Eupodium.xlsx
+++ b/biology/Botanique/Eupodium/Eupodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eupodium est un genre de fougères de la famille des Marattiaceae. Il se distingue facilement des autres Marattiaceae par la présence de synangium à tige sur la nervure médiane des pinnules et de barbes. Les lames deltoïdes sont généralement finement divisées, en 3 points pinnés, avec des rachis ailés. 
-Les plantes forment un gros rhizome terrestre en forme de cône, portant habituellement une seule feuille. Ils sont largement répandus dans les régions montagneuses des Néotropiques[2].
+Les plantes forment un gros rhizome terrestre en forme de cône, portant habituellement une seule feuille. Ils sont largement répandus dans les régions montagneuses des Néotropiques.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eupodium kaulfussii (J. Sm.) Hook. Brésil
 Habitat : Forêt tropicale atlantique et clairières d’Araucaria (300 -1000 m). Statut de conservation :  Préoccupation mineure (LC).
@@ -547,9 +561,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 janvier 2019)[3], Catalogue of Life                                   (2 janvier 2019)[4], ITIS      (2 janvier 2019)[5], NCBI  (2 janvier 2019)[6], The Plant List            (2 janvier 2019)[7] et Tropicos                                           (2 janvier 2019)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 janvier 2019), Catalogue of Life                                   (2 janvier 2019), ITIS      (2 janvier 2019), NCBI  (2 janvier 2019), The Plant List            (2 janvier 2019) et Tropicos                                           (2 janvier 2019) :
 Eupodium kaulfussii (J. Sm. ex Hook.) Hook.
 Eupodium laeve (Sm.) Murdock
 Eupodium pittieri (Maxon) Christenh.</t>
